--- a/almacen ropa.xlsx
+++ b/almacen ropa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\almacen_ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F93262-F970-462A-A42D-2507C74A7DF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B088CA2C-D2CF-4CC6-91C1-AB09CD3ED41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
   </bookViews>
@@ -1092,7 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -1469,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A69FF71-9268-41D7-BAAA-A0EB7C34EB72}">
   <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="E10" s="5">
         <f ca="1">TODAY()</f>
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2061,7 +2061,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/almacen ropa.xlsx
+++ b/almacen ropa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\almacen_ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B088CA2C-D2CF-4CC6-91C1-AB09CD3ED41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A1A9B8-3CCF-4726-BE2F-7BFACE69E9E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
   </bookViews>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="106">
   <si>
     <t>producto</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Objetos</t>
+  </si>
+  <si>
+    <t>Tienda</t>
   </si>
 </sst>
 </file>
@@ -2058,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA995A-746F-4FC8-95D4-1E3FBF41CB8F}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,6 +2287,65 @@
         <v>60</v>
       </c>
     </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/almacen ropa.xlsx
+++ b/almacen ropa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\almacen_ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A1A9B8-3CCF-4726-BE2F-7BFACE69E9E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2C82B5-FD36-4D46-B5AD-8EBAFEA0D2A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
   </bookViews>
@@ -33,6 +33,30 @@
     <author>wilfredo</author>
   </authors>
   <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{971C6DE5-B7C5-43D5-9F15-FD66D5230B1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>wilfredo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+solo un usuario puede estar a cargo de la tienda</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C21" authorId="0" shapeId="0" xr:uid="{79086D23-AB21-411A-AA64-76E54F1BA3A6}">
       <text>
         <r>
@@ -215,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
   <si>
     <t>producto</t>
   </si>
@@ -533,6 +557,15 @@
   </si>
   <si>
     <t>Tienda</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>total_venta</t>
+  </si>
+  <si>
+    <t>importe</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1129,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,10 +1352,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1336,10 +1369,10 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1352,6 +1385,9 @@
       <c r="C16" t="s">
         <v>45</v>
       </c>
+      <c r="D16" t="s">
+        <v>107</v>
+      </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
@@ -1362,6 +1398,12 @@
       </c>
       <c r="B17" t="s">
         <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1473,7 +1515,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,7 +1694,7 @@
       </c>
       <c r="E10" s="5">
         <f ca="1">TODAY()</f>
-        <v>44292</v>
+        <v>44298</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2061,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA995A-746F-4FC8-95D4-1E3FBF41CB8F}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,6 +2388,14 @@
         <v>59</v>
       </c>
     </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/almacen ropa.xlsx
+++ b/almacen ropa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\almacen_ropa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\almacen_ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2C82B5-FD36-4D46-B5AD-8EBAFEA0D2A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CCFB3-B10C-417F-A7CC-774029325789}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="reportes" sheetId="3" r:id="rId3"/>
     <sheet name="modulos" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
   <si>
     <t>producto</t>
   </si>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="E10" s="5">
         <f ca="1">TODAY()</f>
-        <v>44298</v>
+        <v>44310</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2106,7 +2106,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,6 +2387,9 @@
       <c r="E14" t="s">
         <v>59</v>
       </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">

--- a/almacen ropa.xlsx
+++ b/almacen ropa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\almacen_ropa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\almacen_ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5CCFB3-B10C-417F-A7CC-774029325789}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA494A9-75EE-484F-B46F-C43DC3BC1CDB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
   </bookViews>
   <sheets>
     <sheet name="tablas" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
   <si>
     <t>producto</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>importe</t>
+  </si>
+  <si>
+    <t>detallatado</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -726,6 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,6 +857,93 @@
           <a:r>
             <a:rPr lang="es-ES" sz="1100" baseline="0"/>
             <a:t>R.- Cuando se ingresa en almacen ya esta la cantidad con su talla respectiva</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{114D4D28-06ED-4F5A-B12D-F14DC21CED1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="3352800"/>
+          <a:ext cx="5000625" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>Detallado</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>1.-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t> extraer todas las tallas de todos los productos de ese almacen y evitar registros repetidos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100" baseline="0"/>
+            <a:t>2.- mostrar en horizontal todos los registros obtenido en el paso 1</a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100"/>
         </a:p>
@@ -1129,7 +1220,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A69FF71-9268-41D7-BAAA-A0EB7C34EB72}">
   <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="A23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1785,7 @@
       </c>
       <c r="E10" s="5">
         <f ca="1">TODAY()</f>
-        <v>44310</v>
+        <v>44313</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2037,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F89978-A88F-43F8-8C35-8EA52AD1B222}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,13 +2182,19 @@
         <v>68</v>
       </c>
     </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2105,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA995A-746F-4FC8-95D4-1E3FBF41CB8F}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/almacen ropa.xlsx
+++ b/almacen ropa.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\almacen_ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA494A9-75EE-484F-B46F-C43DC3BC1CDB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28F3CD2-F8F8-403E-AFF7-957A3EE5248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
   </bookViews>
   <sheets>
     <sheet name="tablas" sheetId="1" r:id="rId1"/>
     <sheet name="Registros" sheetId="4" r:id="rId2"/>
     <sheet name="reportes" sheetId="3" r:id="rId3"/>
     <sheet name="modulos" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -238,8 +242,42 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>wilfredo</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{CB7D3204-E41F-4FB7-98CD-49239762D323}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>wilfredo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+El color deberia poder ingresarse manualmente</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
   <si>
     <t>producto</t>
   </si>
@@ -569,6 +607,33 @@
   </si>
   <si>
     <t>detallatado</t>
+  </si>
+  <si>
+    <t>Jeans clasico</t>
+  </si>
+  <si>
+    <t>Jeans sport</t>
+  </si>
+  <si>
+    <t>Poleras hobbies</t>
+  </si>
+  <si>
+    <t>poleras</t>
+  </si>
+  <si>
+    <t>pantalones</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Chompas bibis</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>revisar la funcion de descontar/sumar en el stock</t>
   </si>
 </sst>
 </file>
@@ -637,7 +702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -697,11 +762,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -712,29 +914,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -952,6 +1201,147 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="wilfredo" refreshedDate="44321.812921990742" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="4" xr:uid="{137B5134-8216-4D13-8FA8-423AF4BD7284}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="datos"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="id_producto" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+    <cacheField name="descripcion" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Jeans fit nike"/>
+        <s v="Poleras hobbies"/>
+        <s v="Chompas bibis"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="categoria" numFmtId="0">
+      <sharedItems count="2">
+        <s v="pantalones"/>
+        <s v="poleras"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="talla" numFmtId="0">
+      <sharedItems count="4">
+        <s v="XL"/>
+        <s v="L"/>
+        <s v="S"/>
+        <s v="M"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="precio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="15" maxValue="32"/>
+    </cacheField>
+    <cacheField name="color" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15"/>
+    <s v="Azul"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="18.5"/>
+    <s v="Negro"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="20"/>
+    <s v="Azul"/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="32"/>
+    <s v="Negro"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FED1752-96A1-4132-BB0C-E71561F60ED1}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I2:K19" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54012584-BD4A-4883-999C-04DE519F5363}" name="datos" displayName="datos" ref="A2:F6" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A2:F6" xr:uid="{D6839E6B-1428-4EC4-90C1-7AE5A7F15CDB}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D1E60F0A-67D1-41CF-BC34-F26412FA7EEA}" name="id_producto"/>
+    <tableColumn id="2" xr3:uid="{95E21204-2A69-4EC5-8BDF-C24F2BB67F03}" name="descripcion"/>
+    <tableColumn id="3" xr3:uid="{8266377F-6B97-4CCB-832D-FA9DE9CF65B3}" name="categoria"/>
+    <tableColumn id="4" xr3:uid="{AB7801F1-171D-490B-8D71-441B1FFF1A1F}" name="talla"/>
+    <tableColumn id="5" xr3:uid="{D9495E94-3F9F-48A8-8197-483EBCACFC5B}" name="precio"/>
+    <tableColumn id="6" xr3:uid="{460B6441-1AAE-4C41-8C7B-6D76F1FF1845}" name="color"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1220,7 +1610,7 @@
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1606,14 +1996,14 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="A23:F23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1725,18 +2115,18 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="10"/>
       <c r="H8" s="7"/>
       <c r="I8" s="4" t="s">
         <v>75</v>
@@ -1785,7 +2175,7 @@
       </c>
       <c r="E10" s="5">
         <f ca="1">TODAY()</f>
-        <v>44313</v>
+        <v>44352</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1842,7 +2232,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="7"/>
@@ -1900,7 +2290,7 @@
       <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="11" t="s">
         <v>83</v>
       </c>
       <c r="J17" t="s">
@@ -1909,7 +2299,7 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1929,7 +2319,7 @@
       <c r="H18">
         <v>4</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="11" t="s">
         <v>86</v>
       </c>
       <c r="J18" t="s">
@@ -1938,7 +2328,7 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2117,8 +2507,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2130,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F89978-A88F-43F8-8C35-8EA52AD1B222}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,57 +2531,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
+      <c r="A3" s="30"/>
+      <c r="B3" s="3">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44</v>
+      </c>
+      <c r="G3" s="3">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3">
+        <v>54</v>
+      </c>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>68</v>
       </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <f>SUM(B4:H4)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I6" si="0">SUM(B5:H5)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7">
+        <v>52</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3">
+        <f>SUM(I4:I6)</f>
+        <v>181</v>
+      </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="13" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2202,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA995A-746F-4FC8-95D4-1E3FBF41CB8F}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2286,6 +2769,12 @@
       <c r="J3" t="s">
         <v>59</v>
       </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="M3" t="s">
         <v>59</v>
       </c>
@@ -2318,6 +2807,9 @@
       <c r="J4" t="s">
         <v>59</v>
       </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
       <c r="M4" t="s">
         <v>59</v>
       </c>
@@ -2341,13 +2833,28 @@
       <c r="F5" t="s">
         <v>59</v>
       </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
       <c r="I5" t="s">
         <v>101</v>
       </c>
       <c r="J5" t="s">
         <v>59</v>
       </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2370,10 +2877,19 @@
       <c r="F6" t="s">
         <v>59</v>
       </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
       <c r="I6" t="s">
         <v>45</v>
       </c>
       <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
         <v>60</v>
       </c>
       <c r="M6" t="s">
@@ -2495,10 +3011,228 @@
       <c r="B15" t="s">
         <v>59</v>
       </c>
+      <c r="K15" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K15:N15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E0DA13-4F97-4117-9975-AEFB41D6550C}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>18.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/almacen ropa.xlsx
+++ b/almacen ropa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\almacen_ropa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28F3CD2-F8F8-403E-AFF7-957A3EE5248F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963406A7-D547-4DE5-B011-16F608DD5174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E7144C52-66CD-4449-8D70-445115D6CE42}"/>
   </bookViews>
   <sheets>
     <sheet name="tablas" sheetId="1" r:id="rId1"/>
@@ -143,30 +143,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{02DD7D80-0A89-41AD-BAD6-B5631F299426}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>wilfredo:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-crear una vista con tabla donde se puesa hacer el crud</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="J20" authorId="0" shapeId="0" xr:uid="{1C32CF2E-C8D1-408B-AC49-4C08BCD5927C}">
       <text>
         <r>
@@ -277,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="119">
   <si>
     <t>producto</t>
   </si>
@@ -405,235 +381,235 @@
     <t>direccion_cli</t>
   </si>
   <si>
+    <t>stock_almacen</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>desc_almacen</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Alamacenes</t>
+  </si>
+  <si>
+    <t>Tiendas</t>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>nombre_tienda</t>
+  </si>
+  <si>
+    <t>dir_tienda</t>
+  </si>
+  <si>
+    <t>proveedor</t>
+  </si>
+  <si>
+    <t>id_proveedor</t>
+  </si>
+  <si>
+    <t>nombre_prov</t>
+  </si>
+  <si>
+    <t>nit</t>
+  </si>
+  <si>
+    <t>telefono</t>
+  </si>
+  <si>
+    <t>Jeans fit nike</t>
+  </si>
+  <si>
+    <t>Poleras</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>id_color</t>
+  </si>
+  <si>
+    <t>color_prenda</t>
+  </si>
+  <si>
+    <t>id_color_prenda</t>
+  </si>
+  <si>
+    <t>id_prenda</t>
+  </si>
+  <si>
+    <t>talla_prenda</t>
+  </si>
+  <si>
+    <t>id_talla_prenda</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>Nombre producto</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>traspaso_almacen</t>
+  </si>
+  <si>
+    <t>emils shoping</t>
+  </si>
+  <si>
+    <t>calle junin #364</t>
+  </si>
+  <si>
+    <t>71446134 - 4455494</t>
+  </si>
+  <si>
+    <t>dabalos</t>
+  </si>
+  <si>
+    <t>Calle A. Arze</t>
+  </si>
+  <si>
+    <t>32198687-445948</t>
+  </si>
+  <si>
+    <t>id_almacen_origen</t>
+  </si>
+  <si>
+    <t>id_almacen_destino</t>
+  </si>
+  <si>
+    <t>ingreso_tienda</t>
+  </si>
+  <si>
+    <t>stock_tienda</t>
+  </si>
+  <si>
+    <t>id_stock_tienda</t>
+  </si>
+  <si>
+    <t>id_ingreso_tienda</t>
+  </si>
+  <si>
+    <t>traspaso_tienda</t>
+  </si>
+  <si>
+    <t>id_traspaso_tienda</t>
+  </si>
+  <si>
+    <t>id_tienda_origen</t>
+  </si>
+  <si>
+    <t>Funciones almacenes</t>
+  </si>
+  <si>
+    <t>Traspaso a otro almacen</t>
+  </si>
+  <si>
+    <t>Traspaso a tienda</t>
+  </si>
+  <si>
+    <t>Ingresar inventario</t>
+  </si>
+  <si>
+    <t>paginacion</t>
+  </si>
+  <si>
+    <t>id_tienda_destino</t>
+  </si>
+  <si>
+    <t>Objetos</t>
+  </si>
+  <si>
+    <t>Tienda</t>
+  </si>
+  <si>
+    <t>Venta</t>
+  </si>
+  <si>
+    <t>total_venta</t>
+  </si>
+  <si>
+    <t>importe</t>
+  </si>
+  <si>
+    <t>detallatado</t>
+  </si>
+  <si>
+    <t>Jeans clasico</t>
+  </si>
+  <si>
+    <t>Jeans sport</t>
+  </si>
+  <si>
+    <t>Poleras hobbies</t>
+  </si>
+  <si>
+    <t>poleras</t>
+  </si>
+  <si>
+    <t>pantalones</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Chompas bibis</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>revisar la funcion de descontar/sumar en el stock</t>
+  </si>
+  <si>
     <t>ingreso_almacen</t>
   </si>
   <si>
-    <t>stock_almacen</t>
-  </si>
-  <si>
     <t>id_stock_almacen</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>Azul</t>
-  </si>
-  <si>
-    <t>desc_almacen</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Proveedores</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>Alamacenes</t>
-  </si>
-  <si>
-    <t>Tiendas</t>
-  </si>
-  <si>
-    <t>Registrar</t>
-  </si>
-  <si>
-    <t>Editar</t>
-  </si>
-  <si>
-    <t>Eliminar</t>
-  </si>
-  <si>
-    <t>Ver</t>
-  </si>
-  <si>
-    <t>Buscar</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>sn</t>
-  </si>
-  <si>
-    <t>nombre_tienda</t>
-  </si>
-  <si>
-    <t>dir_tienda</t>
-  </si>
-  <si>
-    <t>proveedor</t>
-  </si>
-  <si>
-    <t>id_proveedor</t>
-  </si>
-  <si>
-    <t>nombre_prov</t>
-  </si>
-  <si>
-    <t>nit</t>
-  </si>
-  <si>
-    <t>telefono</t>
-  </si>
-  <si>
-    <t>Jeans fit nike</t>
-  </si>
-  <si>
-    <t>Poleras</t>
-  </si>
-  <si>
-    <t>Negro</t>
-  </si>
-  <si>
-    <t>id_color</t>
-  </si>
-  <si>
-    <t>color_prenda</t>
-  </si>
-  <si>
-    <t>id_color_prenda</t>
-  </si>
-  <si>
-    <t>id_prenda</t>
-  </si>
-  <si>
-    <t>talla_prenda</t>
-  </si>
-  <si>
-    <t>id_talla_prenda</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>Nombre producto</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>traspaso_almacen</t>
-  </si>
-  <si>
-    <t>emils shoping</t>
-  </si>
-  <si>
-    <t>calle junin #364</t>
-  </si>
-  <si>
-    <t>71446134 - 4455494</t>
-  </si>
-  <si>
-    <t>dabalos</t>
-  </si>
-  <si>
-    <t>Calle A. Arze</t>
-  </si>
-  <si>
-    <t>32198687-445948</t>
-  </si>
-  <si>
-    <t>id_almacen_origen</t>
-  </si>
-  <si>
-    <t>id_almacen_destino</t>
-  </si>
-  <si>
-    <t>ingreso_tienda</t>
-  </si>
-  <si>
-    <t>stock_tienda</t>
-  </si>
-  <si>
-    <t>id_stock_tienda</t>
-  </si>
-  <si>
-    <t>id_ingreso_tienda</t>
-  </si>
-  <si>
-    <t>traspaso_tienda</t>
-  </si>
-  <si>
-    <t>id_traspaso_tienda</t>
-  </si>
-  <si>
-    <t>id_tienda_origen</t>
-  </si>
-  <si>
-    <t>Funciones almacenes</t>
-  </si>
-  <si>
-    <t>Traspaso a otro almacen</t>
-  </si>
-  <si>
-    <t>Traspaso a tienda</t>
-  </si>
-  <si>
-    <t>Ingresar inventario</t>
-  </si>
-  <si>
-    <t>paginacion</t>
-  </si>
-  <si>
-    <t>id_tienda_destino</t>
-  </si>
-  <si>
-    <t>Objetos</t>
-  </si>
-  <si>
-    <t>Tienda</t>
-  </si>
-  <si>
-    <t>Venta</t>
-  </si>
-  <si>
-    <t>total_venta</t>
-  </si>
-  <si>
-    <t>importe</t>
-  </si>
-  <si>
-    <t>detallatado</t>
-  </si>
-  <si>
-    <t>Jeans clasico</t>
-  </si>
-  <si>
-    <t>Jeans sport</t>
-  </si>
-  <si>
-    <t>Poleras hobbies</t>
-  </si>
-  <si>
-    <t>poleras</t>
-  </si>
-  <si>
-    <t>pantalones</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Chompas bibis</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>revisar la funcion de descontar/sumar en el stock</t>
   </si>
 </sst>
 </file>
@@ -997,6 +973,81 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756E42BE-E6F8-4A97-86C7-0DCDFD566645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="2181225"/>
+          <a:ext cx="5181600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1100"/>
+            <a:t>stock_producto=total_ingreso_producto_almacen-total_traspaso_producto_tienda</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1609,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1694,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>5</v>
@@ -1666,7 +1717,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -1680,7 +1731,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1689,7 +1740,7 @@
         <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -1703,7 +1754,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -1712,7 +1763,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>7</v>
@@ -1726,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -1738,7 +1789,7 @@
         <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
@@ -1790,13 +1841,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>19</v>
@@ -1813,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1841,7 +1892,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1858,16 +1909,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1884,7 +1935,7 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1894,44 +1945,44 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
         <v>94</v>
-      </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1948,7 +1999,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -1965,10 +2016,10 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,7 +2027,7 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1995,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A69FF71-9268-41D7-BAAA-A0EB7C34EB72}">
   <dimension ref="A2:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,14 +2067,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -2047,10 +2098,10 @@
         <v>6</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>6</v>
@@ -2061,19 +2112,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2082,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2090,19 +2141,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>18.5</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2111,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2121,7 +2172,7 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="26" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="10"/>
@@ -2129,7 +2180,7 @@
       <c r="F8" s="10"/>
       <c r="H8" s="7"/>
       <c r="I8" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8" s="7"/>
     </row>
@@ -2151,10 +2202,10 @@
       </c>
       <c r="F9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>4</v>
@@ -2168,14 +2219,14 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="5">
         <f ca="1">TODAY()</f>
-        <v>44352</v>
+        <v>44455</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2184,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2195,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2210,7 +2261,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2233,7 +2284,7 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -2247,7 +2298,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>1</v>
@@ -2256,16 +2307,16 @@
         <v>12</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>24</v>
@@ -2285,57 +2336,46 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <f>SUM(C10:C11)-SUM(C27)</f>
+        <v>73</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J17" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
       <c r="H18">
         <v>4</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="J18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2344,7 +2384,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -2357,10 +2397,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>
@@ -2369,7 +2409,7 @@
         <v>17</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>1</v>
@@ -2385,24 +2425,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22" s="5">
-        <v>44279</v>
-      </c>
+      <c r="F22" s="5"/>
       <c r="H22">
         <v>1</v>
       </c>
@@ -2437,16 +2460,42 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>1</v>
@@ -2455,10 +2504,28 @@
         <v>32</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>44279</v>
+      </c>
       <c r="H27">
         <v>1</v>
       </c>
@@ -2476,23 +2543,23 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H31" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>1</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>17</v>
@@ -2513,7 +2580,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="D17" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2532,7 +2603,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2545,7 +2616,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>4</v>
@@ -2557,7 +2628,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2587,7 +2658,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7">
@@ -2607,7 +2678,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2629,7 +2700,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7">
@@ -2665,7 +2736,7 @@
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2685,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA995A-746F-4FC8-95D4-1E3FBF41CB8F}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,322 +2768,322 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>56</v>
       </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" t="s">
-        <v>58</v>
-      </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
       <c r="G12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
@@ -3048,7 +3119,7 @@
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
@@ -3082,19 +3153,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="19"/>
@@ -3105,19 +3176,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>18.5</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
@@ -3125,19 +3196,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
         <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>115</v>
       </c>
       <c r="E5">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="19"/>
@@ -3145,19 +3216,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="19"/>
